--- a/data/example/immuno_Dmel_001.xlsx
+++ b/data/example/immuno_Dmel_001.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="REAGENT_TYPES" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="155">
   <si>
     <t xml:space="preserve">SHEET</t>
   </si>
@@ -124,160 +124,396 @@
     <t xml:space="preserve">1B</t>
   </si>
   <si>
+    <t xml:space="preserve">Dmel_006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">short_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genotype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RRID_source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flybase_stocknumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flybase_Identificators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_ordered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_culled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sharable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derived_from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first_description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gr66a-GFP, uas-cd8YFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w[*]; P{Gr66a-GFP.IRES.GFP.IRES.GFP}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cross</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBtp0020702;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in_stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dmel_002, Dmel_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gr66a-GFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thum, Adreas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBtp0020702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trashed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uas-cd8YFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w[*]; P{UAS-mCD8.ChRFP}2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RRID:SCR_006457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBst0027391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBti0115768;FBti0115768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wg/Cyo;Gr5a_Gal4/tm3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w*; wgSp-1/[CyO; P{Gr5a-GAL4.8.5}2]/TM3, Sb[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBst0057591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBti0162726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1L3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dmel_005</t>
   </si>
   <si>
-    <t xml:space="preserve">short_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genotype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RRID_source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flybase_stocknumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identificators</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_ordered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_culled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sharable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">derived_from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">first_description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gr66a-GFP, uas-cd8YFP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cross</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in_stock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1L2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dmel_002, Dmel_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gr66a-GFP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BDRC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trashed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uas-cd8YFP</t>
+    <t xml:space="preserve">GH86-Gal4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF262626"/>
+        <rFont val="HelveticaNeue"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF262626"/>
+        <rFont val="HelveticaNeue"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF262626"/>
+        <rFont val="HelveticaNeue"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve"> P{GawB}GH86</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Stocker, Reinhard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBst0036339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBti0009836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1L4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heimbeck et al.</t>
   </si>
   <si>
     <t xml:space="preserve">Gr5a_Gal4</t>
   </si>
   <si>
-    <t xml:space="preserve">self</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plasmid xxx inserted on chromosome II, exact position unknown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1L3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RRID_xxxxx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">this_paper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH86-Gal4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stocker, Reinhard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1L4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heimbeck et al.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">complete_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RRID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">animal_origin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">company_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anti-GFP</t>
+    <t xml:space="preserve">w*; P{Gr5a-GAL4.8.5}2]/TM3, Sb[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBti0162726;FBba0000047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1L5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">antibody_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antibody_Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target_Antigen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cat_Num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proper_Citation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clonality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clone_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Host_Organism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v_uuid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rat:anti-GFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB_10773374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anti-Green Fluorescent Protein (GFP) antibody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antibodies-Online</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABIN398304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Antibodies-Online Cat# ABIN398304, RRID:AB_10773374)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMID:28431247, PMID:29398448, PMID:29625034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monoclonal antibody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturer recommendations: IgG2a; IgG2a Western Blotting (WB),ELISA; ELISA; Western Blot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6fdf468e-c635-5bef-b192-76c4e64f8391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rabbit:anti-YFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB_1287717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YFP Antibody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YFP c elegans/worm, chemical, porcine, sheep, guinea pig, other invertebrate, reptile, donkey, goat, mollusc, mouse, non-human primate, rat, amoeba/protozoa, bacteria/archaea, bovine, chicken/bird, zebrafish/fish, hamster, plant, horse, human, rabbit, canine, drosophila/arthropod, feline, other mammalian, all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BioVision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3991-100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(BioVision Cat# 3991-100, RRID:AB_1287717)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polyclonal antibody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rabbit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturer recommendations: IgG Western blot, Western blotting (0.5-4 µg/ml), immunoprecipitation (10-20 µg/ml) and immunofluorescence. However, the optimal conditions should be determined individually.; Immunoprecipitation; Immunofluorescence; Western Blot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5ff77058-aadc-5116-a9f6-ee283d395cba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mouse:antirat-alex488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB_2129901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mouse Anti-Rat CD49d Monoclonal antibody, Alexa fluor?? 488 Conjugated, Clone MRalpha4-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rat CD49d rat, rat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bio-Rad / AbD Serotec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCA2872A488T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Bio-Rad / AbD Serotec Cat# MCA2872A488T, RRID:AB_2129901)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clone MRalpha4-1</t>
   </si>
   <si>
     <t xml:space="preserve">mouse</t>
   </si>
   <si>
-    <t xml:space="preserve">polyclonal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anti-YFP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rabbit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">antimouse-alex488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rat </t>
-  </si>
-  <si>
-    <t xml:space="preserve">monoclonal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antirabbit-alex567</t>
+    <t xml:space="preserve">manufacturer recommendations: Flow Cytometry; Flow Cytometry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">663a06d3-13c4-5ea1-835e-df381db66615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antirabbit-alexa647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB_2721062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti-Rabbit IgG Antibody, Alexa Fluor(R) 647 Conjugated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IgG rabbit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sigma-Aldrich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP182SA6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Sigma-Aldrich Cat# AP182SA6, RRID:AB_2721062)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">application(s): Immunofluorescence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97ec08f0-45f1-5f20-8a6e-f15047419822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antibody_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rabbit:anti-RFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB_777699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFP antibody (Biotin)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFP antibody ()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abcam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ab34771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Abcam Cat# ab34771, RRID:AB_777699)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMID:26587807, PMID:28641110, PMID:28817801, PMID:28829946, PMID:28942925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seller recommendations: ELISA, ICC, IHC-Fr, IHC-P, WB; Immunohistochemistry; Immunocytochemistry; Western Blot; ELISA; Immunohistochemistry - frozen; Immunohistochemistry - fixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59089b77-fc45-5a52-8cbf-7e2e9f881dda</t>
   </si>
 </sst>
 </file>
@@ -289,7 +525,7 @@
     <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -320,6 +556,25 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF262626"/>
+      <name val="HelveticaNeue"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF262626"/>
+      <name val="HelveticaNeue"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF262626"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -367,7 +622,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -392,6 +647,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -401,6 +664,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF262626"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -411,7 +734,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -478,8 +801,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -844,10 +1167,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -914,14 +1237,20 @@
       <c r="B2" s="0" t="s">
         <v>49</v>
       </c>
+      <c r="C2" s="0" t="s">
+        <v>50</v>
+      </c>
       <c r="D2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>15</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>52</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>15</v>
@@ -933,19 +1262,19 @@
         <v>15</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="N2" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>15</v>
@@ -956,10 +1285,22 @@
         <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>50</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="H3" s="3" t="n">
         <v>42401</v>
@@ -971,10 +1312,10 @@
         <v>42795</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>15</v>
@@ -991,10 +1332,22 @@
         <v>23</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>63</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>56</v>
+        <v>64</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>67</v>
       </c>
       <c r="H4" s="3" t="n">
         <v>42471</v>
@@ -1006,10 +1359,10 @@
         <v>42795</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>15</v>
@@ -1026,10 +1379,22 @@
         <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>60</v>
+        <v>68</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>69</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>71</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>15</v>
@@ -1041,36 +1406,42 @@
         <v>15</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>66</v>
+        <v>74</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>15</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="H6" s="3" t="n">
         <v>40634</v>
@@ -1082,22 +1453,72 @@
         <v>15</v>
       </c>
       <c r="K6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>69</v>
+      <c r="E7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>42795</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" display="P{GawB}GH86"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1113,10 +1534,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1125,26 +1546,50 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1152,13 +1597,43 @@
         <v>26</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>76</v>
+        <v>99</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>100</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>78</v>
+        <v>101</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1166,13 +1641,40 @@
         <v>28</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>79</v>
+        <v>110</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>111</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>78</v>
+        <v>113</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1180,13 +1682,43 @@
         <v>29</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>81</v>
+        <v>121</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>123</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>83</v>
+        <v>125</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1194,13 +1726,84 @@
         <v>31</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>84</v>
+        <v>133</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>135</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>83</v>
+        <v>137</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
